--- a/natmiOut/OldD4/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H2">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I2">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J2">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>321.5503977384387</v>
+        <v>381.3279273071146</v>
       </c>
       <c r="R2">
-        <v>321.5503977384387</v>
+        <v>3431.951345764032</v>
       </c>
       <c r="S2">
-        <v>0.001557392338712519</v>
+        <v>0.001710242737333371</v>
       </c>
       <c r="T2">
-        <v>0.001557392338712519</v>
+        <v>0.001816503757836023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H3">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I3">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J3">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>16754.93431794776</v>
+        <v>17952.27156244035</v>
       </c>
       <c r="R3">
-        <v>16754.93431794776</v>
+        <v>161570.4440619631</v>
       </c>
       <c r="S3">
-        <v>0.08115059575708924</v>
+        <v>0.0805153251562731</v>
       </c>
       <c r="T3">
-        <v>0.08115059575708924</v>
+        <v>0.08551791363710387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H4">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I4">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J4">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>11062.97945409113</v>
+        <v>11337.34175009443</v>
       </c>
       <c r="R4">
-        <v>11062.97945409113</v>
+        <v>102036.0757508499</v>
       </c>
       <c r="S4">
-        <v>0.05358226755841421</v>
+        <v>0.05084759074870844</v>
       </c>
       <c r="T4">
-        <v>0.05358226755841421</v>
+        <v>0.05400685976071053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H5">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I5">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J5">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>12985.42607391165</v>
+        <v>13504.0202252392</v>
       </c>
       <c r="R5">
-        <v>12985.42607391165</v>
+        <v>121536.1820271528</v>
       </c>
       <c r="S5">
-        <v>0.06289341647426068</v>
+        <v>0.06056506975010478</v>
       </c>
       <c r="T5">
-        <v>0.06289341647426068</v>
+        <v>0.06432810641032476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H6">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I6">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J6">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>3925.68843348416</v>
+        <v>4005.729741560143</v>
       </c>
       <c r="R6">
-        <v>3925.68843348416</v>
+        <v>24034.37844936086</v>
       </c>
       <c r="S6">
-        <v>0.01901362005297163</v>
+        <v>0.01796556115520495</v>
       </c>
       <c r="T6">
-        <v>0.01901362005297163</v>
+        <v>0.01272119979917656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H7">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J7">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>373.9978874513418</v>
+        <v>482.8913913830284</v>
       </c>
       <c r="R7">
-        <v>373.9978874513418</v>
+        <v>4346.022522447255</v>
       </c>
       <c r="S7">
-        <v>0.001811415718058551</v>
+        <v>0.002165751406842271</v>
       </c>
       <c r="T7">
-        <v>0.001811415718058551</v>
+        <v>0.002300314150260168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H8">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J8">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>19487.80061654815</v>
+        <v>22733.70706019897</v>
       </c>
       <c r="R8">
-        <v>19487.80061654815</v>
+        <v>204603.3635417907</v>
       </c>
       <c r="S8">
-        <v>0.09438691910204745</v>
+        <v>0.1019599001492914</v>
       </c>
       <c r="T8">
-        <v>0.09438691910204745</v>
+        <v>0.1082948857064324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H9">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J9">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>12867.44153901904</v>
+        <v>14356.94671237328</v>
       </c>
       <c r="R9">
-        <v>12867.44153901904</v>
+        <v>129212.5204113595</v>
       </c>
       <c r="S9">
-        <v>0.06232197196036589</v>
+        <v>0.06439041593023262</v>
       </c>
       <c r="T9">
-        <v>0.06232197196036589</v>
+        <v>0.06839112948859284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H10">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J10">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>15103.45486572531</v>
+        <v>17100.70165036309</v>
       </c>
       <c r="R10">
-        <v>15103.45486572531</v>
+        <v>153906.3148532678</v>
       </c>
       <c r="S10">
-        <v>0.07315184512725934</v>
+        <v>0.07669606316896842</v>
       </c>
       <c r="T10">
-        <v>0.07315184512725934</v>
+        <v>0.0814613527755056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H11">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J11">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>4566.000201652781</v>
+        <v>5072.621934790735</v>
       </c>
       <c r="R11">
-        <v>4566.000201652781</v>
+        <v>30435.73160874441</v>
       </c>
       <c r="S11">
-        <v>0.02211489639766596</v>
+        <v>0.02275053622345049</v>
       </c>
       <c r="T11">
-        <v>0.02211489639766596</v>
+        <v>0.0161093836333116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H12">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I12">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J12">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>278.9157406054841</v>
+        <v>330.5097141818765</v>
       </c>
       <c r="R12">
-        <v>278.9157406054841</v>
+        <v>2974.587427636888</v>
       </c>
       <c r="S12">
-        <v>0.001350896284440772</v>
+        <v>0.001482324786147748</v>
       </c>
       <c r="T12">
-        <v>0.001350896284440772</v>
+        <v>0.001574424779355747</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H13">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I13">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J13">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>14533.3824711609</v>
+        <v>15559.83634589379</v>
       </c>
       <c r="R13">
-        <v>14533.3824711609</v>
+        <v>140038.5271130441</v>
       </c>
       <c r="S13">
-        <v>0.07039076510356647</v>
+        <v>0.06978533487590216</v>
       </c>
       <c r="T13">
-        <v>0.07039076510356647</v>
+        <v>0.0741212462282257</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H14">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I14">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J14">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>9596.12903433899</v>
+        <v>9826.45464198618</v>
       </c>
       <c r="R14">
-        <v>9596.12903433899</v>
+        <v>88438.09177787561</v>
       </c>
       <c r="S14">
-        <v>0.04647774639524186</v>
+        <v>0.04407131364301495</v>
       </c>
       <c r="T14">
-        <v>0.04647774639524186</v>
+        <v>0.04680955813917406</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H15">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I15">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J15">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>11263.6767236375</v>
+        <v>11704.38760273516</v>
       </c>
       <c r="R15">
-        <v>11263.6767236375</v>
+        <v>105339.4884246164</v>
       </c>
       <c r="S15">
-        <v>0.05455432168178152</v>
+        <v>0.05249377886868206</v>
       </c>
       <c r="T15">
-        <v>0.05455432168178152</v>
+        <v>0.05575532905150818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H16">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I16">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J16">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>3405.177864846804</v>
+        <v>3471.90042261608</v>
       </c>
       <c r="R16">
-        <v>3405.177864846804</v>
+        <v>20831.40253569647</v>
       </c>
       <c r="S16">
-        <v>0.01649258702823838</v>
+        <v>0.01557135488201896</v>
       </c>
       <c r="T16">
-        <v>0.01649258702823838</v>
+        <v>0.01102589086345668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H17">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I17">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J17">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>356.2521969316277</v>
+        <v>439.3486309430774</v>
       </c>
       <c r="R17">
-        <v>356.2521969316277</v>
+        <v>3954.137678487696</v>
       </c>
       <c r="S17">
-        <v>0.001725466508681279</v>
+        <v>0.001970463612602387</v>
       </c>
       <c r="T17">
-        <v>0.001725466508681279</v>
+        <v>0.002092892709810508</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H18">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I18">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J18">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>18563.13101210781</v>
+        <v>20683.78780692926</v>
       </c>
       <c r="R18">
-        <v>18563.13101210781</v>
+        <v>186154.0902623634</v>
       </c>
       <c r="S18">
-        <v>0.08990838830897675</v>
+        <v>0.09276608227242554</v>
       </c>
       <c r="T18">
-        <v>0.08990838830897675</v>
+        <v>0.09852983636131625</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H19">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I19">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J19">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>12256.89895844991</v>
+        <v>13062.3676362055</v>
       </c>
       <c r="R19">
-        <v>12256.89895844991</v>
+        <v>117561.3087258496</v>
       </c>
       <c r="S19">
-        <v>0.05936487924916485</v>
+        <v>0.05858427296411167</v>
       </c>
       <c r="T19">
-        <v>0.05936487924916485</v>
+        <v>0.06222423850507274</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H20">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I20">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J20">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>14386.81649738559</v>
+        <v>15558.71567048421</v>
       </c>
       <c r="R20">
-        <v>14386.81649738559</v>
+        <v>140028.4410343579</v>
       </c>
       <c r="S20">
-        <v>0.06968088968036984</v>
+        <v>0.06978030868494446</v>
       </c>
       <c r="T20">
-        <v>0.06968088968036984</v>
+        <v>0.07411590774932855</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H21">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I21">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J21">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>4349.349709203076</v>
+        <v>4615.218954223132</v>
       </c>
       <c r="R21">
-        <v>4349.349709203076</v>
+        <v>27691.31372533879</v>
       </c>
       <c r="S21">
-        <v>0.0210655746754956</v>
+        <v>0.02069909946906781</v>
       </c>
       <c r="T21">
-        <v>0.0210655746754956</v>
+        <v>0.01465678570984983</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H22">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I22">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J22">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>142.9519173481192</v>
+        <v>168.00692135388</v>
       </c>
       <c r="R22">
-        <v>142.9519173481192</v>
+        <v>1008.04152812328</v>
       </c>
       <c r="S22">
-        <v>0.0006923711568950496</v>
+        <v>0.00075350530735138</v>
       </c>
       <c r="T22">
-        <v>0.0006923711568950496</v>
+        <v>0.0005335481303226509</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H23">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I23">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J23">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>7448.754542486185</v>
+        <v>7909.480687170584</v>
       </c>
       <c r="R23">
-        <v>7448.754542486185</v>
+        <v>47456.88412302351</v>
       </c>
       <c r="S23">
-        <v>0.03607718522200197</v>
+        <v>0.03547375089162443</v>
       </c>
       <c r="T23">
-        <v>0.03607718522200197</v>
+        <v>0.02511854034616843</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H24">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I24">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J24">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>4918.27761889944</v>
+        <v>4995.049529210385</v>
       </c>
       <c r="R24">
-        <v>4918.27761889944</v>
+        <v>29970.29717526231</v>
       </c>
       <c r="S24">
-        <v>0.02382111151846847</v>
+        <v>0.02240262663235877</v>
       </c>
       <c r="T24">
-        <v>0.02382111151846847</v>
+        <v>0.01586303299710866</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H25">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I25">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J25">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>5772.941249346266</v>
+        <v>5949.653045253464</v>
       </c>
       <c r="R25">
-        <v>5772.941249346266</v>
+        <v>35697.91827152079</v>
       </c>
       <c r="S25">
-        <v>0.02796057643468617</v>
+        <v>0.02668399081639532</v>
       </c>
       <c r="T25">
-        <v>0.02796057643468617</v>
+        <v>0.01889461596452342</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H26">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I26">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J26">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>1745.246444802672</v>
+        <v>1764.85977937089</v>
       </c>
       <c r="R26">
-        <v>1745.246444802672</v>
+        <v>7059.43911748356</v>
       </c>
       <c r="S26">
-        <v>0.008452900265145663</v>
+        <v>0.007915335866942482</v>
       </c>
       <c r="T26">
-        <v>0.008452900265145663</v>
+        <v>0.003736503345524175</v>
       </c>
     </row>
   </sheetData>
